--- a/experiment/results.xlsx
+++ b/experiment/results.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenbaolong/Desktop/fl-imaml/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8999B5-F15D-7843-8921-E77D7C0A8CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE7EAA-7265-CF44-96CE-A35DC0219F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{8AE53723-2996-8B41-B5EC-31103A9648E1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" activeTab="1" xr2:uid="{8AE53723-2996-8B41-B5EC-31103A9648E1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="fail" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -861,7 +861,7 @@
   <dimension ref="B5:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:L26"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,8 +1411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CD028A-3619-A340-B56E-501D60597436}">
   <dimension ref="G11:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="125" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18:Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1997,18 +1997,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="G30:G33"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="N12:Q12"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
